--- a/dr/protected/commands/template/m_template_lirun.xlsx
+++ b/dr/protected/commands/template/m_template_lirun.xlsx
@@ -860,6 +860,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t>纯利</t>
     </r>
     <r>
@@ -877,6 +883,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t>纯利跟</t>
     </r>
     <r>
@@ -1413,12 +1425,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1518,19 +1530,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1551,16 +1558,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,17 +1638,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1605,13 +1667,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1620,58 +1675,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1685,12 +1699,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1745,103 +1757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,7 +1793,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,79 +1943,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,19 +2003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,25 +2015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,21 +2122,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2135,6 +2132,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2156,6 +2173,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2166,37 +2194,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2233,11 +2232,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2246,232 +2258,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="46" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2895,10 +2907,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2930,26 +2942,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3314,8 +3326,8 @@
   <sheetPr/>
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4127,9 +4139,9 @@
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="42"/>
-      <c r="F78" s="43" t="e">
+      <c r="F78" s="43">
         <f>SUM(F79:F131)</f>
-        <v>#DIV/0!</v>
+        <v>35.487012987013</v>
       </c>
     </row>
     <row r="79" ht="24.95" customHeight="1" spans="1:6">
@@ -4499,9 +4511,9 @@
       <c r="C99" s="77"/>
       <c r="D99" s="78"/>
       <c r="E99" s="79"/>
-      <c r="F99" s="66" t="e">
+      <c r="F99" s="66">
         <f>SUM(E100:E107)/20*25</f>
-        <v>#DIV/0!</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="99" spans="1:6">
@@ -4549,16 +4561,16 @@
       <c r="B102" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="82" t="e">
-        <f>B74/B4</f>
-        <v>#DIV/0!</v>
+      <c r="C102" s="82">
+        <f>B74/IF(B4=0,1,B4)</f>
+        <v>0</v>
       </c>
       <c r="D102" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="E102" s="84" t="e">
+      <c r="E102" s="84">
         <f>IF(C102&gt;0.2,5,IF(C102&gt;0.15,4,IF(C102&gt;0.1,3,IF(C102&gt;0.05,2,1))))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="F102" s="85"/>
     </row>
@@ -4567,16 +4579,16 @@
       <c r="B103" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="82" t="e">
-        <f>(B74-B73)/B73</f>
-        <v>#DIV/0!</v>
+      <c r="C103" s="82">
+        <f>(B74-B73)/IF(B73=0,1,B73)</f>
+        <v>0</v>
       </c>
       <c r="D103" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="84" t="e">
+      <c r="E103" s="84">
         <f>IF(C103&gt;=0.03,5,IF(C103&gt;=0.025,4,IF(C103&gt;=0.02,3,IF(C103&gt;=0.015,2,IF(C103&gt;=0.01,1,0)))))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F103" s="85"/>
     </row>
@@ -4585,16 +4597,16 @@
       <c r="B104" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="C104" s="82" t="e">
-        <f>(B74-B75)/B75</f>
-        <v>#DIV/0!</v>
+      <c r="C104" s="82">
+        <f>(B74-B75)/IF(B75=0,1,B75)</f>
+        <v>0</v>
       </c>
       <c r="D104" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="84" t="e">
+      <c r="E104" s="84">
         <f>IF(C104&gt;0.34,5,IF(C104&gt;0.25,4,IF(C104&gt;0.16,3,IF(C104&gt;0.08,2,IF(C104&gt;0,1,0)))))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F104" s="85"/>
     </row>

--- a/dr/protected/commands/template/m_template_lirun.xlsx
+++ b/dr/protected/commands/template/m_template_lirun.xlsx
@@ -1425,9 +1425,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1532,15 +1532,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1554,15 +1546,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1573,14 +1566,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,98 +1650,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1699,8 +1671,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1757,7 +1757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,25 +1769,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,144 +1913,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1961,13 +1925,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,19 +1985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2003,19 +1997,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,7 +2027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,6 +2122,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2132,41 +2171,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2186,31 +2190,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2234,7 +2214,27 @@
       <right/>
       <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2258,232 +2258,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2907,10 +2907,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2942,26 +2942,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3326,8 +3326,8 @@
   <sheetPr/>
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4141,7 +4141,7 @@
       <c r="E78" s="42"/>
       <c r="F78" s="43">
         <f>SUM(F79:F131)</f>
-        <v>35.487012987013</v>
+        <v>32.2727272727273</v>
       </c>
     </row>
     <row r="79" ht="24.95" customHeight="1" spans="1:6">
@@ -4512,8 +4512,8 @@
       <c r="D99" s="78"/>
       <c r="E99" s="79"/>
       <c r="F99" s="66">
-        <f>SUM(E100:E107)/20*25</f>
-        <v>7.5</v>
+        <f>SUM(E100:E107)/35*25</f>
+        <v>4.28571428571429</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="99" spans="1:6">

--- a/dr/protected/commands/template/m_template_lirun.xlsx
+++ b/dr/protected/commands/template/m_template_lirun.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -1425,14 +1425,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1530,14 +1530,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,13 +1687,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1714,6 +1714,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1757,13 +1768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,7 +1786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,7 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,31 +1966,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,37 +2008,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,6 +2230,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2238,21 +2264,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2261,7 +2272,7 @@
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2342,7 +2353,7 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2360,130 +2371,130 @@
     <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2907,10 +2918,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2942,26 +2953,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3326,8 +3337,8 @@
   <sheetPr/>
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4580,7 +4591,7 @@
         <v>134</v>
       </c>
       <c r="C103" s="82">
-        <f>(B74-B73)/IF(B73=0,1,B73)</f>
+        <f>(B74-B73)/ABS(IF(B73=0,1,B73))</f>
         <v>0</v>
       </c>
       <c r="D103" s="83" t="s">
@@ -4598,7 +4609,7 @@
         <v>136</v>
       </c>
       <c r="C104" s="82">
-        <f>(B74-B75)/IF(B75=0,1,B75)</f>
+        <f>(B74-B75)/ABS(IF(B75=0,1,B75))</f>
         <v>0</v>
       </c>
       <c r="D104" s="83" t="s">

--- a/dr/protected/commands/template/m_template_lirun.xlsx
+++ b/dr/protected/commands/template/m_template_lirun.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="187">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t>去年今月利润额</t>
-  </si>
-  <si>
-    <t>去年今月生意额</t>
   </si>
   <si>
     <t>总分 (100分满分）</t>
@@ -1425,12 +1422,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1530,13 +1527,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1544,9 +1534,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1580,6 +1570,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1608,30 +1605,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1679,6 +1652,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1687,13 +1684,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1768,13 +1765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,7 +1783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,7 +1831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,18 +1850,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,6 +1939,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1966,31 +1963,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,37 +2005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,6 +2183,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2206,41 +2218,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2264,241 +2246,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2596,6 +2593,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2918,10 +2918,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2953,26 +2953,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3337,8 +3337,8 @@
   <sheetPr/>
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4125,1788 +4125,1786 @@
       <c r="F75" s="28"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="15" spans="1:6">
-      <c r="A76" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="29"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="30"/>
       <c r="D76" s="26"/>
       <c r="E76" s="27"/>
       <c r="F76" s="28"/>
     </row>
     <row r="77" ht="21.75" spans="1:6">
-      <c r="A77" s="33"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="38"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" ht="21.75" spans="1:6">
-      <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43">
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="44">
         <f>SUM(F79:F131)</f>
         <v>32.2727272727273</v>
       </c>
     </row>
     <row r="79" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A79" s="44" t="s">
-        <v>86</v>
+      <c r="A79" s="45" t="s">
+        <v>85</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="48">
+      <c r="C79" s="46"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="49">
         <f>SUM(E80:E90)/55*30</f>
         <v>11.4545454545455</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="C80" s="52">
+        <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="51">
-        <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="53">
+      <c r="E80" s="54">
         <f>IF(C80&gt;0.2,5,IF(C80&gt;0.1,4,IF(C80&gt;0,3,IF(C80&gt;-0.1,2,IF(C80&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F80" s="54"/>
+      <c r="F80" s="55"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="51">
+      <c r="A81" s="50"/>
+      <c r="B81" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="52">
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="53">
+      <c r="D81" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="54">
         <f>IF(C81&gt;0.2,5,IF(C81&gt;0.1,4,IF(C81&gt;0,3,IF(C81&gt;-0.1,2,IF(C81&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F81" s="54"/>
+      <c r="F81" s="55"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A82" s="49"/>
-      <c r="B82" s="55" t="s">
+      <c r="A82" s="50"/>
+      <c r="B82" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="57">
+        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="56">
-        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" s="53">
+      <c r="E82" s="54">
         <f>IF(C82&gt;0.4,5,IF(C82&gt;0.2,4,IF(C82&gt;0,3,IF(C82&gt;-0.2,2,IF(C82&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F82" s="58"/>
+      <c r="F82" s="59"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A83" s="49"/>
-      <c r="B83" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="56">
+      <c r="A83" s="50"/>
+      <c r="B83" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="57">
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" s="53">
+      <c r="D83" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="54">
         <f>IF(C83&gt;0.4,5,IF(C83&gt;0.2,4,IF(C83&gt;0,3,IF(C83&gt;-0.2,2,IF(C83&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F83" s="58"/>
+      <c r="F83" s="59"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A84" s="49"/>
-      <c r="B84" s="55" t="s">
+      <c r="A84" s="50"/>
+      <c r="B84" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="57">
+        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="56">
-        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" s="53">
+      <c r="E84" s="54">
         <f>IF(C84&gt;3,5,IF(C84&gt;1,4,IF(C84&gt;0,3,IF(C84&gt;-1,2,IF(C84&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F84" s="58"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A85" s="49"/>
-      <c r="B85" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="56">
+      <c r="A85" s="50"/>
+      <c r="B85" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="57">
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="53">
+      <c r="D85" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="54">
         <f>IF(C85&gt;3,5,IF(C85&gt;1,4,IF(C85&gt;0,3,IF(C85&gt;-1,2,IF(C85&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F85" s="58"/>
+      <c r="F85" s="59"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A86" s="49"/>
-      <c r="B86" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="56">
+      <c r="A86" s="50"/>
+      <c r="B86" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="57">
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" s="53">
+      <c r="D86" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="54">
         <f>IF(C86&gt;0.2,5,IF(C86&gt;0.1,4,IF(C86&gt;0,3,IF(C86&gt;-0.1,2,IF(C86&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F86" s="58"/>
+      <c r="F86" s="59"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A87" s="49"/>
-      <c r="B87" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="56">
+      <c r="A87" s="50"/>
+      <c r="B87" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="57">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D87" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="53">
+      <c r="D87" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="54">
         <f>IF(C87&gt;0.2,5,IF(C87&gt;0.1,4,IF(C87&gt;0,3,IF(C87&gt;-0.1,2,IF(C87&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F87" s="58"/>
+      <c r="F87" s="59"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="C88" s="57">
+        <f>(B13/IF(B14=0,1,B14))</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="56">
-        <f>(B13/IF(B14=0,1,B14))</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="57" t="s">
+      <c r="E88" s="54">
+        <f>IF(C88&gt;2.3,1,IF(C88&gt;1.5,3,IF(C88&gt;=1,5,IF(C88&gt;0.7,4,IF(C88&gt;0.4,2,IF(C88&gt;0.2,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="59"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="115.5" spans="1:6">
+      <c r="A89" s="60"/>
+      <c r="B89" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="E88" s="53">
-        <f>IF(C88&gt;2.3,1,IF(C88&gt;1.5,3,IF(C88&gt;=1,5,IF(C88&gt;0.7,4,IF(C88&gt;0.4,2,IF(C88&gt;0.2,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="58"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A89" s="59"/>
-      <c r="B89" s="55" t="s">
+      <c r="C89" s="57">
+        <f>(B5/IF(B6=0,1,B6))</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="54">
+        <f>IF(C89&gt;2.3,1,IF(C89&gt;1.5,3,IF(C89&gt;=1,5,IF(C89&gt;0.7,4,IF(C89&gt;0.4,2,IF(C89&gt;0.2,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="59"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A90" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="56">
-        <f>(B5/IF(B6=0,1,B6))</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E89" s="53">
-        <f>IF(C89&gt;2.3,1,IF(C89&gt;1.5,3,IF(C89&gt;=1,5,IF(C89&gt;0.7,4,IF(C89&gt;0.4,2,IF(C89&gt;0.2,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="58"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A90" s="60" t="s">
+      <c r="B90" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="C90" s="57">
+        <f>(B19/IF(B4=0,1,B4))</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="56">
-        <f>(B19/IF(B4=0,1,B4))</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" s="53">
+      <c r="E90" s="54">
         <f>IF(C90&gt;0.032,1,IF(C90&gt;0.024,2,IF(C90&gt;0.016,3,IF(C90&gt;0.008,4,IF(C90&gt;0,5,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F90" s="58"/>
+      <c r="F90" s="59"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A91" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="66">
+      <c r="A91" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="63"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="67">
         <f>SUM(E92:F98)/25*20</f>
         <v>8</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="69">
+      <c r="C92" s="70">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D92" s="70" t="s">
+      <c r="D92" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="72">
+        <f>IF(C92&gt;0.2,5,IF(C92&gt;0,4,IF(C92&gt;-0.1,3,IF(C92&gt;-0.2,2,IF(C92&gt;-0.3,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="73"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="49.5" spans="1:6">
+      <c r="A93" s="68"/>
+      <c r="B93" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E92" s="71">
-        <f>IF(C92&gt;0.2,5,IF(C92&gt;0,4,IF(C92&gt;-0.1,3,IF(C92&gt;-0.2,2,IF(C92&gt;-0.3,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="72"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="49.5" spans="1:6">
-      <c r="A93" s="67"/>
-      <c r="B93" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="69">
+      <c r="C93" s="70">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D93" s="70" t="s">
+      <c r="D93" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="72">
+        <f>IF(C93&gt;0.7,5,IF(C93&gt;0.3,4,IF(C93&gt;0.1,3,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="73"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A94" s="68"/>
+      <c r="B94" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E93" s="71">
-        <f>IF(C93&gt;0.7,5,IF(C93&gt;0.3,4,IF(C93&gt;0.1,3,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="72"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A94" s="67"/>
-      <c r="B94" s="68" t="s">
+      <c r="C94" s="74">
+        <f>B21</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="73">
-        <f>B21</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="70" t="s">
+      <c r="E94" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E94" s="71" t="s">
+      <c r="F94" s="73"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A95" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="F94" s="72"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A95" s="67" t="s">
+      <c r="B95" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="68" t="s">
+      <c r="C95" s="70">
+        <f>B25/IF(B5=0,1,B5)</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="69">
-        <f>B25/IF(B5=0,1,B5)</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" s="71">
+      <c r="E95" s="72">
         <f>IF(C95&gt;0.3,0,IF(C95&gt;0.25,1,IF(C95&gt;0.2,2,IF(C95&gt;0.15,3,IF(C95&gt;0.1,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F95" s="72"/>
+      <c r="F95" s="73"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A96" s="67"/>
-      <c r="B96" s="68" t="s">
+      <c r="A96" s="68"/>
+      <c r="B96" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="70">
+        <f>B26/IF(B6=0,1,B6)</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C96" s="69">
-        <f>B26/IF(B6=0,1,B6)</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="E96" s="71">
+      <c r="E96" s="72">
         <f>IF(C96&gt;0.25,0,IF(C96&gt;0.2,1,IF(C96&gt;0.15,2,IF(C96&gt;0.1,3,IF(C96&gt;0.05,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F96" s="72"/>
+      <c r="F96" s="73"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A97" s="67" t="s">
+      <c r="A97" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="68" t="s">
+      <c r="C97" s="75">
+        <f>B37/IF(B66=0,1,B66)</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="74">
-        <f>B37/IF(B66=0,1,B66)</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="75" t="s">
+      <c r="E97" s="72">
+        <f>IF(C97&gt;0.2,5,IF(C97&gt;0.1,3,IF(C97&gt;0.05,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="73"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="33" spans="1:6">
+      <c r="A98" s="68"/>
+      <c r="B98" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="E97" s="71">
-        <f>IF(C97&gt;0.2,5,IF(C97&gt;0.1,3,IF(C97&gt;0.05,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="72"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A98" s="67"/>
-      <c r="B98" s="68" t="s">
+      <c r="C98" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="76" t="s">
+      <c r="D98" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" s="73"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A99" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D98" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="F98" s="72"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A99" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="66">
+      <c r="B99" s="63"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="67">
         <f>SUM(E100:E107)/35*25</f>
         <v>4.28571428571429</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A100" s="80" t="s">
+      <c r="A100" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="81" t="s">
+      <c r="C100" s="83">
+        <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C100" s="82">
-        <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="83" t="s">
+      <c r="E100" s="85">
+        <f>IF(C100&gt;0.55,5,IF(C100&gt;0.5,4,IF(C100&gt;0.45,3,IF(C100&gt;0.4,2,IF(C100&gt;0.35,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="86"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A101" s="81"/>
+      <c r="B101" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="84">
-        <f>IF(C100&gt;0.55,5,IF(C100&gt;0.5,4,IF(C100&gt;0.45,3,IF(C100&gt;0.4,2,IF(C100&gt;0.35,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="85"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A101" s="80"/>
-      <c r="B101" s="81" t="s">
+      <c r="C101" s="83">
+        <f>B28/IF(B4=0,1,B4)</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C101" s="82">
-        <f>B28/IF(B4=0,1,B4)</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="83" t="s">
+      <c r="E101" s="85">
+        <f>IF(C101&gt;0.35,1,IF(C101&gt;0.3,2,IF(C101&gt;0.28,3,IF(C101&gt;0.25,3,IF(C101&gt;0.2,5,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="86"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A102" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="E101" s="84">
-        <f>IF(C101&gt;0.35,1,IF(C101&gt;0.3,2,IF(C101&gt;0.28,3,IF(C101&gt;0.25,3,IF(C101&gt;0.2,5,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="85"/>
-    </row>
-    <row r="102" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A102" s="86" t="s">
+      <c r="B102" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="87" t="s">
+      <c r="C102" s="83">
+        <f>B74/IF(B4=0,1,B4)</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="82">
-        <f>B74/IF(B4=0,1,B4)</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="84">
+      <c r="E102" s="85">
         <f>IF(C102&gt;0.2,5,IF(C102&gt;0.15,4,IF(C102&gt;0.1,3,IF(C102&gt;0.05,2,1))))</f>
         <v>1</v>
       </c>
-      <c r="F102" s="85"/>
+      <c r="F102" s="86"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A103" s="88"/>
-      <c r="B103" s="89" t="s">
+      <c r="A103" s="89"/>
+      <c r="B103" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="83">
+        <f>(B74-B73)/ABS(IF(B73=0,1,B73))</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="82">
-        <f>(B74-B73)/ABS(IF(B73=0,1,B73))</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="83" t="s">
+      <c r="E103" s="85">
+        <f>IF(C103&gt;=0.03,5,IF(C103&gt;=0.025,4,IF(C103&gt;=0.02,3,IF(C103&gt;=0.015,2,IF(C103&gt;=0.01,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="86"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A104" s="91"/>
+      <c r="B104" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="84">
-        <f>IF(C103&gt;=0.03,5,IF(C103&gt;=0.025,4,IF(C103&gt;=0.02,3,IF(C103&gt;=0.015,2,IF(C103&gt;=0.01,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="85"/>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A104" s="90"/>
-      <c r="B104" s="89" t="s">
+      <c r="C104" s="83">
+        <f>(B74-B75)/ABS(IF(B75=0,1,B75))</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="C104" s="82">
-        <f>(B74-B75)/ABS(IF(B75=0,1,B75))</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="83" t="s">
+      <c r="E104" s="85">
+        <f>IF(C104&gt;0.34,5,IF(C104&gt;0.25,4,IF(C104&gt;0.16,3,IF(C104&gt;0.08,2,IF(C104&gt;0,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="86"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A105" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="84">
-        <f>IF(C104&gt;0.34,5,IF(C104&gt;0.25,4,IF(C104&gt;0.16,3,IF(C104&gt;0.08,2,IF(C104&gt;0,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="85"/>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A105" s="80" t="s">
+      <c r="B105" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="C105" s="92">
+        <f>B23/IF(B3=0,1,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="91">
-        <f>B23/IF(B3=0,1,B3)</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="92" t="s">
+      <c r="E105" s="85">
+        <f>IF(C105&gt;1,5,IF(C105&gt;0.95,4,IF(C105&gt;0.9,3,IF(C105&gt;0.85,2,IF(C105&gt;0.8,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="86"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A106" s="81"/>
+      <c r="B106" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E105" s="84">
-        <f>IF(C105&gt;1,5,IF(C105&gt;0.95,4,IF(C105&gt;0.9,3,IF(C105&gt;0.85,2,IF(C105&gt;0.8,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="85"/>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A106" s="80"/>
-      <c r="B106" s="81" t="s">
+      <c r="C106" s="94">
+        <f>B29</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106" s="86"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A107" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="93">
-        <f>B29</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="E106" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="F106" s="85"/>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A107" s="80" t="s">
+      <c r="B107" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B107" s="81" t="s">
+      <c r="C107" s="83">
+        <f>B22/IF(B4=0,1,B4)</f>
+        <v>0</v>
+      </c>
+      <c r="D107" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C107" s="82">
-        <f>B22/IF(B4=0,1,B4)</f>
-        <v>0</v>
-      </c>
-      <c r="D107" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="E107" s="84">
+      <c r="E107" s="85">
         <f>IF(C107&gt;0.7,0,IF(C107&gt;0.6,1,IF(C107&gt;0.5,2,IF(C107&gt;0.4,3,IF(C107&gt;0.3,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F107" s="85"/>
+      <c r="F107" s="86"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A108" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="94"/>
-      <c r="D108" s="95"/>
-      <c r="E108" s="96"/>
-      <c r="F108" s="66">
+      <c r="A108" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="63"/>
+      <c r="C108" s="95"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="67">
         <f>SUM(E109:E122)/55*15</f>
         <v>0.818181818181818</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A109" s="97" t="s">
+      <c r="A109" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="B109" s="98" t="s">
+      <c r="C109" s="100">
+        <f>B52/IF(B32=0,1,B32)</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="C109" s="99">
-        <f>B52/IF(B32=0,1,B32)</f>
-        <v>0</v>
-      </c>
-      <c r="D109" s="100" t="s">
+      <c r="E109" s="102">
+        <f>IF(C109&gt;0.95,5,IF(C109&gt;0.9,4,IF(C109&gt;0.85,3,IF(C109&gt;0.8,2,IF(C109&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="103"/>
+    </row>
+    <row r="110" s="3" customFormat="1" ht="99" spans="1:6">
+      <c r="A110" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="E109" s="101">
-        <f>IF(C109&gt;0.95,5,IF(C109&gt;0.9,4,IF(C109&gt;0.85,3,IF(C109&gt;0.8,2,IF(C109&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="102"/>
-    </row>
-    <row r="110" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A110" s="97" t="s">
+      <c r="B110" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B110" s="98" t="s">
+      <c r="C110" s="100">
+        <f>B57/IF(B56=0,1,B56)</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" s="102">
+        <f>IF(C110&gt;0.95,5,IF(C110&gt;0.9,4,IF(C110&gt;0.85,3,IF(C110&gt;0.8,2,IF(C110&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="103"/>
+    </row>
+    <row r="111" s="3" customFormat="1" ht="99" spans="1:6">
+      <c r="A111" s="98"/>
+      <c r="B111" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="99">
-        <f>B57/IF(B56=0,1,B56)</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110" s="101">
-        <f>IF(C110&gt;0.95,5,IF(C110&gt;0.9,4,IF(C110&gt;0.85,3,IF(C110&gt;0.8,2,IF(C110&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="102"/>
-    </row>
-    <row r="111" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A111" s="97"/>
-      <c r="B111" s="98" t="s">
+      <c r="C111" s="100">
+        <f>B59/IF(B58=0,1,B58)</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" s="102">
+        <f>IF(C111&gt;0.95,5,IF(C111&gt;0.9,4,IF(C111&gt;0.85,3,IF(C111&gt;0.8,2,IF(C111&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="103"/>
+    </row>
+    <row r="112" s="3" customFormat="1" ht="33" spans="1:6">
+      <c r="A112" s="98"/>
+      <c r="B112" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="C111" s="99">
-        <f>B59/IF(B58=0,1,B58)</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E111" s="101">
-        <f>IF(C111&gt;0.95,5,IF(C111&gt;0.9,4,IF(C111&gt;0.85,3,IF(C111&gt;0.8,2,IF(C111&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="102"/>
-    </row>
-    <row r="112" s="3" customFormat="1" ht="33" spans="1:6">
-      <c r="A112" s="97"/>
-      <c r="B112" s="98" t="s">
+      <c r="C112" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="F112" s="103"/>
+    </row>
+    <row r="113" s="3" customFormat="1" ht="99" spans="1:6">
+      <c r="A113" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="C112" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D112" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="E112" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="F112" s="102"/>
-    </row>
-    <row r="113" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A113" s="97" t="s">
+      <c r="B113" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B113" s="98" t="s">
+      <c r="C113" s="106">
+        <f>B60/100</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="C113" s="105">
-        <f>B60/100</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="104" t="s">
+      <c r="E113" s="102">
+        <f>IF(C113&gt;1.08,0,IF(C113&gt;1.04,1,IF(C113&gt;1,3,IF(C113&gt;0.96,5,IF(C113&gt;0.92,3,IF(C113&gt;0.88,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="103"/>
+    </row>
+    <row r="114" s="3" customFormat="1" ht="99" spans="1:6">
+      <c r="A114" s="98"/>
+      <c r="B114" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="E113" s="101">
-        <f>IF(C113&gt;1.08,0,IF(C113&gt;1.04,1,IF(C113&gt;1,3,IF(C113&gt;0.96,5,IF(C113&gt;0.92,3,IF(C113&gt;0.88,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="102"/>
-    </row>
-    <row r="114" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A114" s="97"/>
-      <c r="B114" s="106" t="s">
+      <c r="C114" s="106">
+        <f>B51/IF(B34=0,1,B34)</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="C114" s="105">
-        <f>B51/IF(B34=0,1,B34)</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="100" t="s">
+      <c r="E114" s="102">
+        <f>IF(C114&gt;0.95,5,IF(C114&gt;0.9,4,IF(C114&gt;0.85,3,IF(C114&gt;0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="103"/>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A115" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="E114" s="101">
-        <f>IF(C114&gt;0.95,5,IF(C114&gt;0.9,4,IF(C114&gt;0.85,3,IF(C114&gt;0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="102"/>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A115" s="97" t="s">
+      <c r="B115" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="B115" s="98" t="s">
+      <c r="C115" s="100">
+        <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="C115" s="99">
-        <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
-        <v>0</v>
-      </c>
-      <c r="D115" s="100" t="s">
+      <c r="E115" s="102">
+        <f>IF(C115&gt;0.9,5,IF(C115&gt;0.7,4,IF(C115&gt;0.5,3,IF(C115&gt;0.3,2,IF(C115&gt;0.1,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="108"/>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A116" s="98"/>
+      <c r="B116" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E115" s="101">
-        <f>IF(C115&gt;0.9,5,IF(C115&gt;0.7,4,IF(C115&gt;0.5,3,IF(C115&gt;0.3,2,IF(C115&gt;0.1,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F115" s="107"/>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A116" s="97"/>
-      <c r="B116" s="98" t="s">
+      <c r="C116" s="100">
+        <f>B49/IF(B48=0,1,B48)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="C116" s="99">
-        <f>B49/IF(B48=0,1,B48)</f>
-        <v>0</v>
-      </c>
-      <c r="D116" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="E116" s="108">
+      <c r="E116" s="109">
         <f>IF(C116&gt;0.2,3,IF(C116&gt;0.1,5,IF(C116&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F116" s="107"/>
+      <c r="F116" s="108"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A117" s="97"/>
-      <c r="B117" s="98" t="s">
+      <c r="A117" s="98"/>
+      <c r="B117" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="100">
+        <f>B50</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="F117" s="108"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A118" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="C117" s="99">
-        <f>B50</f>
-        <v>0</v>
-      </c>
-      <c r="D117" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="E117" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="F117" s="107"/>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A118" s="97" t="s">
+      <c r="B118" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="B118" s="98" t="s">
+      <c r="C118" s="100">
+        <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="C118" s="99">
-        <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
-        <v>0</v>
-      </c>
-      <c r="D118" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="E118" s="101">
+      <c r="E118" s="102">
         <f>IF(C118&gt;0.05,0,IF(C118&gt;0,1,IF(C118&gt;-0.1,2,IF(C118&gt;-0.2,3,IF(C118&gt;-0.3,4,5)))))</f>
         <v>2</v>
       </c>
-      <c r="F118" s="107"/>
+      <c r="F118" s="108"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A119" s="97"/>
-      <c r="B119" s="98" t="s">
+      <c r="A119" s="98"/>
+      <c r="B119" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="100">
+        <f>B44/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119" s="102">
+        <f>IF(C119&gt;0.95,5,IF(C119&gt;0.9,4,IF(C119&gt;0.85,3,IF(C119&gt;0.8,2,IF(C119&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="108"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A120" s="98"/>
+      <c r="B120" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="99">
-        <f>B44/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D119" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E119" s="101">
-        <f>IF(C119&gt;0.95,5,IF(C119&gt;0.9,4,IF(C119&gt;0.85,3,IF(C119&gt;0.8,2,IF(C119&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F119" s="107"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A120" s="97"/>
-      <c r="B120" s="98" t="s">
+      <c r="C120" s="110">
+        <f>B46/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="C120" s="109">
-        <f>B46/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D120" s="100" t="s">
+      <c r="E120" s="111">
+        <f>IF(C120&gt;0.15,5,IF(C120&gt;0.1,3,IF(C120&gt;0.05,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="108"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A121" s="98"/>
+      <c r="B121" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="E120" s="110">
-        <f>IF(C120&gt;0.15,5,IF(C120&gt;0.1,3,IF(C120&gt;0.05,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="107"/>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A121" s="97"/>
-      <c r="B121" s="98" t="s">
+      <c r="C121" s="100">
+        <f>B45/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="102">
+        <f>IF(C121&gt;0.95,5,IF(C121&gt;0.9,4,IF(C121&gt;0.85,3,IF(C121&gt;0.8,2,IF(C121&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="108"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A122" s="98"/>
+      <c r="B122" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="110">
+        <f>B47</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="F122" s="108"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A123" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="99">
-        <f>B45/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D121" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E121" s="101">
-        <f>IF(C121&gt;0.95,5,IF(C121&gt;0.9,4,IF(C121&gt;0.85,3,IF(C121&gt;0.8,2,IF(C121&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F121" s="107"/>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A122" s="97"/>
-      <c r="B122" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="C122" s="109">
-        <f>B47</f>
-        <v>0</v>
-      </c>
-      <c r="D122" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="E122" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="F122" s="107"/>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A123" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B123" s="62"/>
-      <c r="C123" s="94"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="66">
+      <c r="B123" s="63"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="67">
         <f>SUM(E124:E131)/35*10</f>
         <v>7.71428571428571</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A124" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="B124" s="112" t="s">
+      <c r="A124" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" s="114">
+        <f>B62</f>
+        <v>0</v>
+      </c>
+      <c r="D124" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="C124" s="113">
-        <f>B62</f>
-        <v>0</v>
-      </c>
-      <c r="D124" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="E124" s="115">
+      <c r="E124" s="116">
         <f>IF(C124&gt;5,0,IF(C124&gt;3,3,IF(C124&gt;1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="116"/>
+      <c r="F124" s="117"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A125" s="117" t="s">
+      <c r="A125" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="B125" s="112" t="s">
+      <c r="C125" s="119">
+        <f>B63/IF(B69=0,1,B69)</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="C125" s="118">
-        <f>B63/IF(B69=0,1,B69)</f>
-        <v>0</v>
-      </c>
-      <c r="D125" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="E125" s="115">
+      <c r="E125" s="116">
         <f>IF(C125&gt;0.3,0,IF(C125&gt;0.2,1,IF(C125&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F125" s="116"/>
+      <c r="F125" s="117"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="49.5" spans="1:6">
-      <c r="A126" s="117"/>
-      <c r="B126" s="112" t="s">
+      <c r="A126" s="118"/>
+      <c r="B126" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C126" s="119">
+        <f>B72/IF(B71=0,1,B71)</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="C126" s="118">
-        <f>B72/IF(B71=0,1,B71)</f>
-        <v>0</v>
-      </c>
-      <c r="D126" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="E126" s="115">
+      <c r="E126" s="116">
         <f>IF(C126&gt;0.6,1,IF(C126&gt;0.2,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F126" s="116"/>
+      <c r="F126" s="117"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A127" s="120" t="s">
+      <c r="A127" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="B127" s="112" t="s">
+      <c r="C127" s="122">
+        <f>B64/IF(B66=0,1,B66)</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="C127" s="121">
-        <f>B64/IF(B66=0,1,B66)</f>
-        <v>0</v>
-      </c>
-      <c r="D127" s="119" t="s">
-        <v>181</v>
-      </c>
-      <c r="E127" s="115">
+      <c r="E127" s="116">
         <f>IF(C127&gt;0.15,0,IF(C127&gt;0.1,1,IF(C127&gt;0.05,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F127" s="116"/>
+      <c r="F127" s="117"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A128" s="120"/>
-      <c r="B128" s="112" t="s">
+      <c r="A128" s="121"/>
+      <c r="B128" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="122">
+        <f>B67/(IF(B66=0,1,B66)/6)</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="C128" s="121">
-        <f>B67/(IF(B66=0,1,B66)/6)</f>
-        <v>0</v>
-      </c>
-      <c r="D128" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="E128" s="115">
+      <c r="E128" s="116">
         <f>IF(C128&gt;1,5,IF(C128&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F128" s="116"/>
+      <c r="F128" s="117"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A129" s="120"/>
-      <c r="B129" s="112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C129" s="113">
+      <c r="A129" s="121"/>
+      <c r="B129" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="114">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D129" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="E129" s="115">
+      <c r="D129" s="120" t="s">
+        <v>182</v>
+      </c>
+      <c r="E129" s="116">
         <f>IF(C129&gt;1,5,IF(C129&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F129" s="116"/>
+      <c r="F129" s="117"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
-      <c r="A130" s="120"/>
-      <c r="B130" s="112" t="s">
+      <c r="A130" s="121"/>
+      <c r="B130" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="114"/>
+      <c r="D130" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="F130" s="117"/>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A131" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="C130" s="113"/>
-      <c r="D130" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="E130" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="F130" s="116"/>
-    </row>
-    <row r="131" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A131" s="122" t="s">
+      <c r="B131" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="B131" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="C131" s="124">
+      <c r="C131" s="125">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D131" s="125" t="s">
-        <v>176</v>
-      </c>
-      <c r="E131" s="115">
+      <c r="D131" s="126" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="116">
         <f>IF(C131&gt;0.3,0,IF(C131&gt;0.2,1,IF(C131&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F131" s="116"/>
+      <c r="F131" s="117"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:6">
       <c r="A132" s="4"/>
-      <c r="B132" s="126"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="128"/>
-      <c r="E132" s="129"/>
-      <c r="F132" s="130"/>
+      <c r="B132" s="127"/>
+      <c r="C132" s="128"/>
+      <c r="D132" s="129"/>
+      <c r="E132" s="130"/>
+      <c r="F132" s="131"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:6">
       <c r="A133" s="4"/>
-      <c r="B133" s="126"/>
-      <c r="C133" s="127"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="129"/>
-      <c r="F133" s="130"/>
+      <c r="B133" s="127"/>
+      <c r="C133" s="128"/>
+      <c r="D133" s="129"/>
+      <c r="E133" s="130"/>
+      <c r="F133" s="131"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:6">
       <c r="A134" s="4"/>
-      <c r="B134" s="126"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="129"/>
-      <c r="F134" s="130"/>
+      <c r="B134" s="127"/>
+      <c r="C134" s="128"/>
+      <c r="D134" s="129"/>
+      <c r="E134" s="130"/>
+      <c r="F134" s="131"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:6">
       <c r="A135" s="4"/>
-      <c r="B135" s="126"/>
-      <c r="C135" s="127"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="129"/>
-      <c r="F135" s="130"/>
+      <c r="B135" s="127"/>
+      <c r="C135" s="128"/>
+      <c r="D135" s="129"/>
+      <c r="E135" s="130"/>
+      <c r="F135" s="131"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:6">
       <c r="A136" s="4"/>
-      <c r="B136" s="126"/>
-      <c r="C136" s="127"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="129"/>
-      <c r="F136" s="130"/>
+      <c r="B136" s="127"/>
+      <c r="C136" s="128"/>
+      <c r="D136" s="129"/>
+      <c r="E136" s="130"/>
+      <c r="F136" s="131"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:6">
       <c r="A137" s="4"/>
-      <c r="B137" s="126"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="129"/>
-      <c r="F137" s="130"/>
+      <c r="B137" s="127"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="129"/>
+      <c r="E137" s="130"/>
+      <c r="F137" s="131"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:6">
       <c r="A138" s="4"/>
-      <c r="B138" s="126"/>
-      <c r="C138" s="127"/>
-      <c r="D138" s="128"/>
-      <c r="E138" s="129"/>
-      <c r="F138" s="130"/>
+      <c r="B138" s="127"/>
+      <c r="C138" s="128"/>
+      <c r="D138" s="129"/>
+      <c r="E138" s="130"/>
+      <c r="F138" s="131"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:6">
       <c r="A139" s="4"/>
-      <c r="B139" s="126"/>
-      <c r="C139" s="127"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="130"/>
+      <c r="B139" s="127"/>
+      <c r="C139" s="128"/>
+      <c r="D139" s="129"/>
+      <c r="E139" s="130"/>
+      <c r="F139" s="131"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:6">
       <c r="A140" s="4"/>
-      <c r="B140" s="126"/>
-      <c r="C140" s="127"/>
-      <c r="D140" s="128"/>
-      <c r="E140" s="129"/>
-      <c r="F140" s="130"/>
+      <c r="B140" s="127"/>
+      <c r="C140" s="128"/>
+      <c r="D140" s="129"/>
+      <c r="E140" s="130"/>
+      <c r="F140" s="131"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4"/>
-      <c r="B141" s="126"/>
-      <c r="C141" s="127"/>
-      <c r="D141" s="128"/>
-      <c r="E141" s="129"/>
-      <c r="F141" s="130"/>
+      <c r="B141" s="127"/>
+      <c r="C141" s="128"/>
+      <c r="D141" s="129"/>
+      <c r="E141" s="130"/>
+      <c r="F141" s="131"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="128"/>
-      <c r="E142" s="129"/>
-      <c r="F142" s="130"/>
+      <c r="B142" s="127"/>
+      <c r="C142" s="128"/>
+      <c r="D142" s="129"/>
+      <c r="E142" s="130"/>
+      <c r="F142" s="131"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:6">
       <c r="A143" s="4"/>
-      <c r="B143" s="126"/>
-      <c r="C143" s="127"/>
-      <c r="D143" s="128"/>
-      <c r="E143" s="129"/>
-      <c r="F143" s="130"/>
+      <c r="B143" s="127"/>
+      <c r="C143" s="128"/>
+      <c r="D143" s="129"/>
+      <c r="E143" s="130"/>
+      <c r="F143" s="131"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:6">
       <c r="A144" s="4"/>
-      <c r="B144" s="126"/>
-      <c r="C144" s="127"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="130"/>
+      <c r="B144" s="127"/>
+      <c r="C144" s="128"/>
+      <c r="D144" s="129"/>
+      <c r="E144" s="130"/>
+      <c r="F144" s="131"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:6">
       <c r="A145" s="4"/>
-      <c r="B145" s="126"/>
-      <c r="C145" s="127"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="129"/>
-      <c r="F145" s="130"/>
+      <c r="B145" s="127"/>
+      <c r="C145" s="128"/>
+      <c r="D145" s="129"/>
+      <c r="E145" s="130"/>
+      <c r="F145" s="131"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:6">
       <c r="A146" s="4"/>
-      <c r="B146" s="126"/>
-      <c r="C146" s="127"/>
-      <c r="D146" s="128"/>
-      <c r="E146" s="129"/>
-      <c r="F146" s="130"/>
+      <c r="B146" s="127"/>
+      <c r="C146" s="128"/>
+      <c r="D146" s="129"/>
+      <c r="E146" s="130"/>
+      <c r="F146" s="131"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:6">
       <c r="A147" s="4"/>
-      <c r="B147" s="126"/>
-      <c r="C147" s="127"/>
-      <c r="D147" s="128"/>
-      <c r="E147" s="129"/>
-      <c r="F147" s="130"/>
+      <c r="B147" s="127"/>
+      <c r="C147" s="128"/>
+      <c r="D147" s="129"/>
+      <c r="E147" s="130"/>
+      <c r="F147" s="131"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:6">
       <c r="A148" s="4"/>
-      <c r="B148" s="126"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="128"/>
-      <c r="E148" s="129"/>
-      <c r="F148" s="130"/>
+      <c r="B148" s="127"/>
+      <c r="C148" s="128"/>
+      <c r="D148" s="129"/>
+      <c r="E148" s="130"/>
+      <c r="F148" s="131"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:6">
       <c r="A149" s="4"/>
-      <c r="B149" s="126"/>
-      <c r="C149" s="127"/>
-      <c r="D149" s="128"/>
-      <c r="E149" s="129"/>
-      <c r="F149" s="130"/>
+      <c r="B149" s="127"/>
+      <c r="C149" s="128"/>
+      <c r="D149" s="129"/>
+      <c r="E149" s="130"/>
+      <c r="F149" s="131"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:6">
       <c r="A150" s="4"/>
-      <c r="B150" s="126"/>
-      <c r="C150" s="127"/>
-      <c r="D150" s="128"/>
-      <c r="E150" s="129"/>
-      <c r="F150" s="130"/>
+      <c r="B150" s="127"/>
+      <c r="C150" s="128"/>
+      <c r="D150" s="129"/>
+      <c r="E150" s="130"/>
+      <c r="F150" s="131"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:6">
       <c r="A151" s="4"/>
-      <c r="B151" s="126"/>
-      <c r="C151" s="127"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="129"/>
-      <c r="F151" s="130"/>
+      <c r="B151" s="127"/>
+      <c r="C151" s="128"/>
+      <c r="D151" s="129"/>
+      <c r="E151" s="130"/>
+      <c r="F151" s="131"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:6">
       <c r="A152" s="4"/>
-      <c r="B152" s="126"/>
-      <c r="C152" s="127"/>
-      <c r="D152" s="128"/>
-      <c r="E152" s="129"/>
-      <c r="F152" s="130"/>
+      <c r="B152" s="127"/>
+      <c r="C152" s="128"/>
+      <c r="D152" s="129"/>
+      <c r="E152" s="130"/>
+      <c r="F152" s="131"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:6">
       <c r="A153" s="4"/>
-      <c r="B153" s="126"/>
-      <c r="C153" s="127"/>
-      <c r="D153" s="128"/>
-      <c r="E153" s="129"/>
-      <c r="F153" s="130"/>
+      <c r="B153" s="127"/>
+      <c r="C153" s="128"/>
+      <c r="D153" s="129"/>
+      <c r="E153" s="130"/>
+      <c r="F153" s="131"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:6">
       <c r="A154" s="4"/>
-      <c r="B154" s="126"/>
-      <c r="C154" s="127"/>
-      <c r="D154" s="128"/>
-      <c r="E154" s="129"/>
-      <c r="F154" s="130"/>
+      <c r="B154" s="127"/>
+      <c r="C154" s="128"/>
+      <c r="D154" s="129"/>
+      <c r="E154" s="130"/>
+      <c r="F154" s="131"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:6">
       <c r="A155" s="4"/>
-      <c r="B155" s="126"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="128"/>
-      <c r="E155" s="129"/>
-      <c r="F155" s="130"/>
+      <c r="B155" s="127"/>
+      <c r="C155" s="128"/>
+      <c r="D155" s="129"/>
+      <c r="E155" s="130"/>
+      <c r="F155" s="131"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:6">
       <c r="A156" s="4"/>
-      <c r="B156" s="126"/>
-      <c r="C156" s="127"/>
-      <c r="D156" s="128"/>
-      <c r="E156" s="129"/>
-      <c r="F156" s="130"/>
+      <c r="B156" s="127"/>
+      <c r="C156" s="128"/>
+      <c r="D156" s="129"/>
+      <c r="E156" s="130"/>
+      <c r="F156" s="131"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
       <c r="A157" s="4"/>
-      <c r="B157" s="126"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="128"/>
-      <c r="E157" s="129"/>
-      <c r="F157" s="130"/>
+      <c r="B157" s="127"/>
+      <c r="C157" s="128"/>
+      <c r="D157" s="129"/>
+      <c r="E157" s="130"/>
+      <c r="F157" s="131"/>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:6">
       <c r="A158" s="4"/>
-      <c r="B158" s="126"/>
-      <c r="C158" s="127"/>
-      <c r="D158" s="128"/>
-      <c r="E158" s="129"/>
-      <c r="F158" s="130"/>
+      <c r="B158" s="127"/>
+      <c r="C158" s="128"/>
+      <c r="D158" s="129"/>
+      <c r="E158" s="130"/>
+      <c r="F158" s="131"/>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:6">
       <c r="A159" s="4"/>
-      <c r="B159" s="126"/>
-      <c r="C159" s="127"/>
-      <c r="D159" s="128"/>
-      <c r="E159" s="129"/>
-      <c r="F159" s="130"/>
+      <c r="B159" s="127"/>
+      <c r="C159" s="128"/>
+      <c r="D159" s="129"/>
+      <c r="E159" s="130"/>
+      <c r="F159" s="131"/>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:6">
       <c r="A160" s="4"/>
-      <c r="B160" s="126"/>
-      <c r="C160" s="127"/>
-      <c r="D160" s="128"/>
-      <c r="E160" s="129"/>
-      <c r="F160" s="130"/>
+      <c r="B160" s="127"/>
+      <c r="C160" s="128"/>
+      <c r="D160" s="129"/>
+      <c r="E160" s="130"/>
+      <c r="F160" s="131"/>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:6">
       <c r="A161" s="4"/>
-      <c r="B161" s="126"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="129"/>
-      <c r="F161" s="130"/>
+      <c r="B161" s="127"/>
+      <c r="C161" s="128"/>
+      <c r="D161" s="129"/>
+      <c r="E161" s="130"/>
+      <c r="F161" s="131"/>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:6">
       <c r="A162" s="4"/>
-      <c r="B162" s="126"/>
-      <c r="C162" s="127"/>
-      <c r="D162" s="128"/>
-      <c r="E162" s="129"/>
-      <c r="F162" s="130"/>
+      <c r="B162" s="127"/>
+      <c r="C162" s="128"/>
+      <c r="D162" s="129"/>
+      <c r="E162" s="130"/>
+      <c r="F162" s="131"/>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:6">
       <c r="A163" s="4"/>
-      <c r="B163" s="126"/>
-      <c r="C163" s="127"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="129"/>
-      <c r="F163" s="130"/>
+      <c r="B163" s="127"/>
+      <c r="C163" s="128"/>
+      <c r="D163" s="129"/>
+      <c r="E163" s="130"/>
+      <c r="F163" s="131"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:6">
       <c r="A164" s="4"/>
-      <c r="B164" s="126"/>
-      <c r="C164" s="127"/>
-      <c r="D164" s="128"/>
-      <c r="E164" s="129"/>
-      <c r="F164" s="130"/>
+      <c r="B164" s="127"/>
+      <c r="C164" s="128"/>
+      <c r="D164" s="129"/>
+      <c r="E164" s="130"/>
+      <c r="F164" s="131"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="131"/>
-      <c r="C165" s="132"/>
-      <c r="D165" s="133"/>
-      <c r="E165" s="134"/>
+      <c r="B165" s="132"/>
+      <c r="C165" s="133"/>
+      <c r="D165" s="134"/>
+      <c r="E165" s="135"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="131"/>
-      <c r="C166" s="132"/>
-      <c r="D166" s="133"/>
-      <c r="E166" s="134"/>
+      <c r="B166" s="132"/>
+      <c r="C166" s="133"/>
+      <c r="D166" s="134"/>
+      <c r="E166" s="135"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="131"/>
-      <c r="C167" s="132"/>
-      <c r="D167" s="133"/>
-      <c r="E167" s="134"/>
+      <c r="B167" s="132"/>
+      <c r="C167" s="133"/>
+      <c r="D167" s="134"/>
+      <c r="E167" s="135"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="131"/>
-      <c r="C168" s="132"/>
-      <c r="D168" s="133"/>
-      <c r="E168" s="134"/>
+      <c r="B168" s="132"/>
+      <c r="C168" s="133"/>
+      <c r="D168" s="134"/>
+      <c r="E168" s="135"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="131"/>
-      <c r="C169" s="132"/>
-      <c r="D169" s="133"/>
-      <c r="E169" s="134"/>
+      <c r="B169" s="132"/>
+      <c r="C169" s="133"/>
+      <c r="D169" s="134"/>
+      <c r="E169" s="135"/>
     </row>
     <row r="170" spans="2:5">
-      <c r="B170" s="131"/>
-      <c r="C170" s="132"/>
-      <c r="D170" s="133"/>
-      <c r="E170" s="134"/>
+      <c r="B170" s="132"/>
+      <c r="C170" s="133"/>
+      <c r="D170" s="134"/>
+      <c r="E170" s="135"/>
     </row>
     <row r="171" spans="2:5">
-      <c r="B171" s="131"/>
-      <c r="C171" s="132"/>
-      <c r="D171" s="133"/>
-      <c r="E171" s="134"/>
+      <c r="B171" s="132"/>
+      <c r="C171" s="133"/>
+      <c r="D171" s="134"/>
+      <c r="E171" s="135"/>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="131"/>
-      <c r="C172" s="132"/>
-      <c r="D172" s="133"/>
-      <c r="E172" s="134"/>
+      <c r="B172" s="132"/>
+      <c r="C172" s="133"/>
+      <c r="D172" s="134"/>
+      <c r="E172" s="135"/>
     </row>
     <row r="173" spans="2:5">
-      <c r="B173" s="131"/>
-      <c r="C173" s="132"/>
-      <c r="D173" s="133"/>
-      <c r="E173" s="134"/>
+      <c r="B173" s="132"/>
+      <c r="C173" s="133"/>
+      <c r="D173" s="134"/>
+      <c r="E173" s="135"/>
     </row>
     <row r="174" spans="2:5">
-      <c r="B174" s="131"/>
-      <c r="C174" s="132"/>
-      <c r="D174" s="133"/>
-      <c r="E174" s="134"/>
+      <c r="B174" s="132"/>
+      <c r="C174" s="133"/>
+      <c r="D174" s="134"/>
+      <c r="E174" s="135"/>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="131"/>
-      <c r="C175" s="132"/>
-      <c r="D175" s="133"/>
-      <c r="E175" s="134"/>
+      <c r="B175" s="132"/>
+      <c r="C175" s="133"/>
+      <c r="D175" s="134"/>
+      <c r="E175" s="135"/>
     </row>
     <row r="176" spans="2:5">
-      <c r="B176" s="131"/>
-      <c r="C176" s="132"/>
-      <c r="D176" s="133"/>
-      <c r="E176" s="134"/>
+      <c r="B176" s="132"/>
+      <c r="C176" s="133"/>
+      <c r="D176" s="134"/>
+      <c r="E176" s="135"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="131"/>
-      <c r="C177" s="132"/>
-      <c r="D177" s="133"/>
-      <c r="E177" s="134"/>
+      <c r="B177" s="132"/>
+      <c r="C177" s="133"/>
+      <c r="D177" s="134"/>
+      <c r="E177" s="135"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="131"/>
-      <c r="C178" s="132"/>
-      <c r="D178" s="133"/>
-      <c r="E178" s="134"/>
+      <c r="B178" s="132"/>
+      <c r="C178" s="133"/>
+      <c r="D178" s="134"/>
+      <c r="E178" s="135"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="131"/>
-      <c r="C179" s="132"/>
-      <c r="D179" s="133"/>
-      <c r="E179" s="134"/>
+      <c r="B179" s="132"/>
+      <c r="C179" s="133"/>
+      <c r="D179" s="134"/>
+      <c r="E179" s="135"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="131"/>
-      <c r="C180" s="132"/>
-      <c r="D180" s="133"/>
-      <c r="E180" s="134"/>
+      <c r="B180" s="132"/>
+      <c r="C180" s="133"/>
+      <c r="D180" s="134"/>
+      <c r="E180" s="135"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="131"/>
-      <c r="C181" s="132"/>
-      <c r="D181" s="133"/>
-      <c r="E181" s="134"/>
+      <c r="B181" s="132"/>
+      <c r="C181" s="133"/>
+      <c r="D181" s="134"/>
+      <c r="E181" s="135"/>
     </row>
     <row r="182" spans="2:5">
-      <c r="B182" s="131"/>
-      <c r="C182" s="132"/>
-      <c r="D182" s="133"/>
-      <c r="E182" s="134"/>
+      <c r="B182" s="132"/>
+      <c r="C182" s="133"/>
+      <c r="D182" s="134"/>
+      <c r="E182" s="135"/>
     </row>
     <row r="183" spans="2:5">
-      <c r="B183" s="131"/>
-      <c r="C183" s="132"/>
-      <c r="D183" s="133"/>
-      <c r="E183" s="134"/>
+      <c r="B183" s="132"/>
+      <c r="C183" s="133"/>
+      <c r="D183" s="134"/>
+      <c r="E183" s="135"/>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="131"/>
-      <c r="C184" s="132"/>
-      <c r="D184" s="133"/>
-      <c r="E184" s="134"/>
+      <c r="B184" s="132"/>
+      <c r="C184" s="133"/>
+      <c r="D184" s="134"/>
+      <c r="E184" s="135"/>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="131"/>
-      <c r="C185" s="132"/>
-      <c r="D185" s="133"/>
-      <c r="E185" s="134"/>
+      <c r="B185" s="132"/>
+      <c r="C185" s="133"/>
+      <c r="D185" s="134"/>
+      <c r="E185" s="135"/>
     </row>
     <row r="186" spans="2:5">
-      <c r="B186" s="131"/>
-      <c r="C186" s="132"/>
-      <c r="D186" s="133"/>
-      <c r="E186" s="134"/>
+      <c r="B186" s="132"/>
+      <c r="C186" s="133"/>
+      <c r="D186" s="134"/>
+      <c r="E186" s="135"/>
     </row>
     <row r="187" spans="2:5">
-      <c r="B187" s="131"/>
-      <c r="C187" s="132"/>
-      <c r="D187" s="133"/>
-      <c r="E187" s="134"/>
+      <c r="B187" s="132"/>
+      <c r="C187" s="133"/>
+      <c r="D187" s="134"/>
+      <c r="E187" s="135"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="131"/>
-      <c r="C188" s="132"/>
-      <c r="D188" s="133"/>
-      <c r="E188" s="134"/>
+      <c r="B188" s="132"/>
+      <c r="C188" s="133"/>
+      <c r="D188" s="134"/>
+      <c r="E188" s="135"/>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="131"/>
-      <c r="C189" s="132"/>
-      <c r="D189" s="133"/>
-      <c r="E189" s="134"/>
+      <c r="B189" s="132"/>
+      <c r="C189" s="133"/>
+      <c r="D189" s="134"/>
+      <c r="E189" s="135"/>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="131"/>
-      <c r="C190" s="132"/>
-      <c r="D190" s="133"/>
-      <c r="E190" s="134"/>
+      <c r="B190" s="132"/>
+      <c r="C190" s="133"/>
+      <c r="D190" s="134"/>
+      <c r="E190" s="135"/>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="131"/>
-      <c r="C191" s="132"/>
-      <c r="D191" s="133"/>
-      <c r="E191" s="134"/>
+      <c r="B191" s="132"/>
+      <c r="C191" s="133"/>
+      <c r="D191" s="134"/>
+      <c r="E191" s="135"/>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="131"/>
-      <c r="C192" s="132"/>
-      <c r="D192" s="133"/>
-      <c r="E192" s="134"/>
+      <c r="B192" s="132"/>
+      <c r="C192" s="133"/>
+      <c r="D192" s="134"/>
+      <c r="E192" s="135"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="131"/>
-      <c r="C193" s="132"/>
-      <c r="D193" s="133"/>
-      <c r="E193" s="134"/>
+      <c r="B193" s="132"/>
+      <c r="C193" s="133"/>
+      <c r="D193" s="134"/>
+      <c r="E193" s="135"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="131"/>
-      <c r="C194" s="132"/>
-      <c r="D194" s="133"/>
-      <c r="E194" s="134"/>
+      <c r="B194" s="132"/>
+      <c r="C194" s="133"/>
+      <c r="D194" s="134"/>
+      <c r="E194" s="135"/>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="131"/>
-      <c r="C195" s="132"/>
-      <c r="D195" s="133"/>
-      <c r="E195" s="134"/>
+      <c r="B195" s="132"/>
+      <c r="C195" s="133"/>
+      <c r="D195" s="134"/>
+      <c r="E195" s="135"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="131"/>
-      <c r="C196" s="132"/>
-      <c r="D196" s="133"/>
-      <c r="E196" s="134"/>
+      <c r="B196" s="132"/>
+      <c r="C196" s="133"/>
+      <c r="D196" s="134"/>
+      <c r="E196" s="135"/>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="131"/>
-      <c r="C197" s="132"/>
-      <c r="D197" s="133"/>
-      <c r="E197" s="134"/>
+      <c r="B197" s="132"/>
+      <c r="C197" s="133"/>
+      <c r="D197" s="134"/>
+      <c r="E197" s="135"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="131"/>
-      <c r="C198" s="132"/>
-      <c r="D198" s="133"/>
-      <c r="E198" s="134"/>
+      <c r="B198" s="132"/>
+      <c r="C198" s="133"/>
+      <c r="D198" s="134"/>
+      <c r="E198" s="135"/>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="131"/>
-      <c r="C199" s="132"/>
-      <c r="D199" s="133"/>
-      <c r="E199" s="134"/>
+      <c r="B199" s="132"/>
+      <c r="C199" s="133"/>
+      <c r="D199" s="134"/>
+      <c r="E199" s="135"/>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="131"/>
-      <c r="C200" s="132"/>
-      <c r="D200" s="133"/>
-      <c r="E200" s="134"/>
+      <c r="B200" s="132"/>
+      <c r="C200" s="133"/>
+      <c r="D200" s="134"/>
+      <c r="E200" s="135"/>
     </row>
     <row r="201" spans="2:5">
-      <c r="B201" s="131"/>
-      <c r="C201" s="132"/>
-      <c r="D201" s="133"/>
-      <c r="E201" s="134"/>
+      <c r="B201" s="132"/>
+      <c r="C201" s="133"/>
+      <c r="D201" s="134"/>
+      <c r="E201" s="135"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="131"/>
-      <c r="C202" s="132"/>
-      <c r="D202" s="133"/>
-      <c r="E202" s="134"/>
+      <c r="B202" s="132"/>
+      <c r="C202" s="133"/>
+      <c r="D202" s="134"/>
+      <c r="E202" s="135"/>
     </row>
     <row r="203" spans="2:5">
-      <c r="B203" s="131"/>
-      <c r="C203" s="132"/>
-      <c r="D203" s="133"/>
-      <c r="E203" s="134"/>
+      <c r="B203" s="132"/>
+      <c r="C203" s="133"/>
+      <c r="D203" s="134"/>
+      <c r="E203" s="135"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="131"/>
-      <c r="C204" s="132"/>
-      <c r="D204" s="133"/>
-      <c r="E204" s="134"/>
+      <c r="B204" s="132"/>
+      <c r="C204" s="133"/>
+      <c r="D204" s="134"/>
+      <c r="E204" s="135"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="131"/>
-      <c r="C205" s="132"/>
-      <c r="D205" s="133"/>
-      <c r="E205" s="134"/>
+      <c r="B205" s="132"/>
+      <c r="C205" s="133"/>
+      <c r="D205" s="134"/>
+      <c r="E205" s="135"/>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="131"/>
-      <c r="C206" s="132"/>
-      <c r="D206" s="133"/>
-      <c r="E206" s="134"/>
+      <c r="B206" s="132"/>
+      <c r="C206" s="133"/>
+      <c r="D206" s="134"/>
+      <c r="E206" s="135"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="131"/>
-      <c r="C207" s="132"/>
-      <c r="D207" s="133"/>
-      <c r="E207" s="134"/>
+      <c r="B207" s="132"/>
+      <c r="C207" s="133"/>
+      <c r="D207" s="134"/>
+      <c r="E207" s="135"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="131"/>
-      <c r="C208" s="132"/>
-      <c r="D208" s="133"/>
-      <c r="E208" s="134"/>
+      <c r="B208" s="132"/>
+      <c r="C208" s="133"/>
+      <c r="D208" s="134"/>
+      <c r="E208" s="135"/>
     </row>
     <row r="209" spans="2:5">
-      <c r="B209" s="131"/>
-      <c r="C209" s="132"/>
-      <c r="D209" s="133"/>
-      <c r="E209" s="134"/>
+      <c r="B209" s="132"/>
+      <c r="C209" s="133"/>
+      <c r="D209" s="134"/>
+      <c r="E209" s="135"/>
     </row>
     <row r="210" spans="2:5">
-      <c r="B210" s="131"/>
-      <c r="C210" s="132"/>
-      <c r="D210" s="133"/>
-      <c r="E210" s="134"/>
+      <c r="B210" s="132"/>
+      <c r="C210" s="133"/>
+      <c r="D210" s="134"/>
+      <c r="E210" s="135"/>
     </row>
     <row r="211" spans="2:5">
-      <c r="B211" s="131"/>
-      <c r="C211" s="132"/>
-      <c r="D211" s="133"/>
-      <c r="E211" s="134"/>
+      <c r="B211" s="132"/>
+      <c r="C211" s="133"/>
+      <c r="D211" s="134"/>
+      <c r="E211" s="135"/>
     </row>
     <row r="212" spans="2:5">
-      <c r="B212" s="131"/>
-      <c r="C212" s="132"/>
-      <c r="D212" s="133"/>
-      <c r="E212" s="134"/>
+      <c r="B212" s="132"/>
+      <c r="C212" s="133"/>
+      <c r="D212" s="134"/>
+      <c r="E212" s="135"/>
     </row>
     <row r="213" spans="2:5">
-      <c r="B213" s="131"/>
-      <c r="C213" s="132"/>
-      <c r="D213" s="133"/>
-      <c r="E213" s="134"/>
+      <c r="B213" s="132"/>
+      <c r="C213" s="133"/>
+      <c r="D213" s="134"/>
+      <c r="E213" s="135"/>
     </row>
     <row r="214" spans="2:5">
-      <c r="B214" s="131"/>
-      <c r="C214" s="132"/>
-      <c r="D214" s="133"/>
-      <c r="E214" s="134"/>
+      <c r="B214" s="132"/>
+      <c r="C214" s="133"/>
+      <c r="D214" s="134"/>
+      <c r="E214" s="135"/>
     </row>
     <row r="215" spans="2:5">
-      <c r="B215" s="131"/>
-      <c r="C215" s="132"/>
-      <c r="D215" s="133"/>
-      <c r="E215" s="134"/>
+      <c r="B215" s="132"/>
+      <c r="C215" s="133"/>
+      <c r="D215" s="134"/>
+      <c r="E215" s="135"/>
     </row>
     <row r="216" spans="2:5">
-      <c r="B216" s="131"/>
-      <c r="C216" s="132"/>
-      <c r="D216" s="133"/>
-      <c r="E216" s="134"/>
+      <c r="B216" s="132"/>
+      <c r="C216" s="133"/>
+      <c r="D216" s="134"/>
+      <c r="E216" s="135"/>
     </row>
     <row r="217" spans="2:5">
-      <c r="B217" s="131"/>
-      <c r="C217" s="132"/>
-      <c r="D217" s="133"/>
-      <c r="E217" s="134"/>
+      <c r="B217" s="132"/>
+      <c r="C217" s="133"/>
+      <c r="D217" s="134"/>
+      <c r="E217" s="135"/>
     </row>
     <row r="218" spans="2:5">
-      <c r="B218" s="131"/>
-      <c r="C218" s="132"/>
-      <c r="D218" s="133"/>
-      <c r="E218" s="134"/>
+      <c r="B218" s="132"/>
+      <c r="C218" s="133"/>
+      <c r="D218" s="134"/>
+      <c r="E218" s="135"/>
     </row>
     <row r="219" spans="2:5">
-      <c r="B219" s="131"/>
-      <c r="C219" s="132"/>
-      <c r="D219" s="133"/>
-      <c r="E219" s="134"/>
+      <c r="B219" s="132"/>
+      <c r="C219" s="133"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="135"/>
     </row>
     <row r="220" spans="2:5">
-      <c r="B220" s="131"/>
-      <c r="C220" s="132"/>
-      <c r="D220" s="133"/>
-      <c r="E220" s="134"/>
+      <c r="B220" s="132"/>
+      <c r="C220" s="133"/>
+      <c r="D220" s="134"/>
+      <c r="E220" s="135"/>
     </row>
     <row r="221" spans="2:5">
-      <c r="B221" s="131"/>
-      <c r="C221" s="132"/>
-      <c r="D221" s="133"/>
-      <c r="E221" s="134"/>
+      <c r="B221" s="132"/>
+      <c r="C221" s="133"/>
+      <c r="D221" s="134"/>
+      <c r="E221" s="135"/>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="131"/>
-      <c r="C222" s="132"/>
-      <c r="D222" s="133"/>
-      <c r="E222" s="134"/>
+      <c r="B222" s="132"/>
+      <c r="C222" s="133"/>
+      <c r="D222" s="134"/>
+      <c r="E222" s="135"/>
     </row>
     <row r="223" spans="2:5">
-      <c r="B223" s="131"/>
-      <c r="C223" s="132"/>
-      <c r="D223" s="133"/>
-      <c r="E223" s="134"/>
+      <c r="B223" s="132"/>
+      <c r="C223" s="133"/>
+      <c r="D223" s="134"/>
+      <c r="E223" s="135"/>
     </row>
     <row r="224" spans="2:5">
-      <c r="B224" s="131"/>
-      <c r="C224" s="132"/>
-      <c r="D224" s="133"/>
-      <c r="E224" s="134"/>
+      <c r="B224" s="132"/>
+      <c r="C224" s="133"/>
+      <c r="D224" s="134"/>
+      <c r="E224" s="135"/>
     </row>
     <row r="225" spans="2:5">
-      <c r="B225" s="131"/>
-      <c r="C225" s="132"/>
-      <c r="D225" s="133"/>
-      <c r="E225" s="134"/>
+      <c r="B225" s="132"/>
+      <c r="C225" s="133"/>
+      <c r="D225" s="134"/>
+      <c r="E225" s="135"/>
     </row>
     <row r="226" spans="2:5">
-      <c r="B226" s="131"/>
-      <c r="C226" s="132"/>
-      <c r="D226" s="133"/>
-      <c r="E226" s="134"/>
+      <c r="B226" s="132"/>
+      <c r="C226" s="133"/>
+      <c r="D226" s="134"/>
+      <c r="E226" s="135"/>
     </row>
     <row r="227" spans="2:5">
-      <c r="B227" s="131"/>
-      <c r="C227" s="132"/>
-      <c r="D227" s="133"/>
-      <c r="E227" s="134"/>
+      <c r="B227" s="132"/>
+      <c r="C227" s="133"/>
+      <c r="D227" s="134"/>
+      <c r="E227" s="135"/>
     </row>
     <row r="228" spans="2:5">
-      <c r="B228" s="131"/>
-      <c r="C228" s="132"/>
-      <c r="D228" s="133"/>
-      <c r="E228" s="134"/>
+      <c r="B228" s="132"/>
+      <c r="C228" s="133"/>
+      <c r="D228" s="134"/>
+      <c r="E228" s="135"/>
     </row>
     <row r="229" spans="2:5">
-      <c r="B229" s="131"/>
-      <c r="C229" s="132"/>
-      <c r="D229" s="133"/>
-      <c r="E229" s="134"/>
+      <c r="B229" s="132"/>
+      <c r="C229" s="133"/>
+      <c r="D229" s="134"/>
+      <c r="E229" s="135"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="131"/>
-      <c r="C230" s="132"/>
-      <c r="D230" s="133"/>
-      <c r="E230" s="134"/>
+      <c r="B230" s="132"/>
+      <c r="C230" s="133"/>
+      <c r="D230" s="134"/>
+      <c r="E230" s="135"/>
     </row>
     <row r="231" spans="2:5">
-      <c r="B231" s="131"/>
-      <c r="C231" s="132"/>
-      <c r="D231" s="133"/>
-      <c r="E231" s="134"/>
+      <c r="B231" s="132"/>
+      <c r="C231" s="133"/>
+      <c r="D231" s="134"/>
+      <c r="E231" s="135"/>
     </row>
     <row r="232" spans="2:5">
-      <c r="B232" s="131"/>
-      <c r="C232" s="132"/>
-      <c r="D232" s="133"/>
-      <c r="E232" s="134"/>
+      <c r="B232" s="132"/>
+      <c r="C232" s="133"/>
+      <c r="D232" s="134"/>
+      <c r="E232" s="135"/>
     </row>
     <row r="233" spans="2:5">
-      <c r="B233" s="131"/>
-      <c r="C233" s="132"/>
-      <c r="D233" s="133"/>
-      <c r="E233" s="134"/>
+      <c r="B233" s="132"/>
+      <c r="C233" s="133"/>
+      <c r="D233" s="134"/>
+      <c r="E233" s="135"/>
     </row>
     <row r="234" spans="2:5">
-      <c r="B234" s="131"/>
-      <c r="C234" s="132"/>
-      <c r="D234" s="133"/>
-      <c r="E234" s="134"/>
+      <c r="B234" s="132"/>
+      <c r="C234" s="133"/>
+      <c r="D234" s="134"/>
+      <c r="E234" s="135"/>
     </row>
     <row r="235" spans="2:5">
-      <c r="B235" s="131"/>
-      <c r="C235" s="132"/>
-      <c r="D235" s="133"/>
-      <c r="E235" s="134"/>
+      <c r="B235" s="132"/>
+      <c r="C235" s="133"/>
+      <c r="D235" s="134"/>
+      <c r="E235" s="135"/>
     </row>
     <row r="236" spans="2:5">
-      <c r="B236" s="131"/>
-      <c r="C236" s="132"/>
-      <c r="D236" s="133"/>
-      <c r="E236" s="134"/>
+      <c r="B236" s="132"/>
+      <c r="C236" s="133"/>
+      <c r="D236" s="134"/>
+      <c r="E236" s="135"/>
     </row>
     <row r="237" spans="2:5">
-      <c r="B237" s="131"/>
-      <c r="C237" s="132"/>
-      <c r="D237" s="133"/>
-      <c r="E237" s="134"/>
+      <c r="B237" s="132"/>
+      <c r="C237" s="133"/>
+      <c r="D237" s="134"/>
+      <c r="E237" s="135"/>
     </row>
     <row r="238" spans="2:5">
-      <c r="B238" s="131"/>
-      <c r="C238" s="132"/>
-      <c r="D238" s="133"/>
-      <c r="E238" s="134"/>
+      <c r="B238" s="132"/>
+      <c r="C238" s="133"/>
+      <c r="D238" s="134"/>
+      <c r="E238" s="135"/>
     </row>
     <row r="239" spans="2:5">
-      <c r="B239" s="131"/>
-      <c r="C239" s="132"/>
-      <c r="D239" s="133"/>
-      <c r="E239" s="134"/>
+      <c r="B239" s="132"/>
+      <c r="C239" s="133"/>
+      <c r="D239" s="134"/>
+      <c r="E239" s="135"/>
     </row>
     <row r="240" spans="2:5">
-      <c r="B240" s="131"/>
-      <c r="C240" s="132"/>
-      <c r="D240" s="133"/>
-      <c r="E240" s="134"/>
+      <c r="B240" s="132"/>
+      <c r="C240" s="133"/>
+      <c r="D240" s="134"/>
+      <c r="E240" s="135"/>
     </row>
     <row r="241" spans="2:5">
-      <c r="B241" s="131"/>
-      <c r="C241" s="132"/>
-      <c r="D241" s="133"/>
-      <c r="E241" s="134"/>
+      <c r="B241" s="132"/>
+      <c r="C241" s="133"/>
+      <c r="D241" s="134"/>
+      <c r="E241" s="135"/>
     </row>
     <row r="242" spans="2:5">
-      <c r="B242" s="131"/>
-      <c r="C242" s="132"/>
-      <c r="D242" s="133"/>
-      <c r="E242" s="134"/>
+      <c r="B242" s="132"/>
+      <c r="C242" s="133"/>
+      <c r="D242" s="134"/>
+      <c r="E242" s="135"/>
     </row>
     <row r="243" spans="2:5">
-      <c r="B243" s="131"/>
-      <c r="C243" s="132"/>
-      <c r="D243" s="133"/>
-      <c r="E243" s="134"/>
+      <c r="B243" s="132"/>
+      <c r="C243" s="133"/>
+      <c r="D243" s="134"/>
+      <c r="E243" s="135"/>
     </row>
     <row r="244" spans="2:5">
-      <c r="B244" s="131"/>
-      <c r="C244" s="132"/>
-      <c r="D244" s="133"/>
-      <c r="E244" s="134"/>
+      <c r="B244" s="132"/>
+      <c r="C244" s="133"/>
+      <c r="D244" s="134"/>
+      <c r="E244" s="135"/>
     </row>
     <row r="245" spans="2:5">
-      <c r="B245" s="131"/>
-      <c r="C245" s="132"/>
-      <c r="D245" s="133"/>
-      <c r="E245" s="134"/>
+      <c r="B245" s="132"/>
+      <c r="C245" s="133"/>
+      <c r="D245" s="134"/>
+      <c r="E245" s="135"/>
     </row>
     <row r="246" spans="2:5">
-      <c r="B246" s="131"/>
-      <c r="C246" s="132"/>
-      <c r="D246" s="133"/>
-      <c r="E246" s="134"/>
+      <c r="B246" s="132"/>
+      <c r="C246" s="133"/>
+      <c r="D246" s="134"/>
+      <c r="E246" s="135"/>
     </row>
     <row r="247" spans="2:5">
-      <c r="B247" s="131"/>
-      <c r="C247" s="132"/>
-      <c r="D247" s="133"/>
-      <c r="E247" s="134"/>
+      <c r="B247" s="132"/>
+      <c r="C247" s="133"/>
+      <c r="D247" s="134"/>
+      <c r="E247" s="135"/>
     </row>
     <row r="248" spans="2:5">
-      <c r="B248" s="131"/>
-      <c r="C248" s="132"/>
-      <c r="D248" s="133"/>
-      <c r="E248" s="134"/>
+      <c r="B248" s="132"/>
+      <c r="C248" s="133"/>
+      <c r="D248" s="134"/>
+      <c r="E248" s="135"/>
     </row>
     <row r="249" spans="2:5">
-      <c r="B249" s="131"/>
-      <c r="C249" s="132"/>
-      <c r="D249" s="133"/>
-      <c r="E249" s="134"/>
+      <c r="B249" s="132"/>
+      <c r="C249" s="133"/>
+      <c r="D249" s="134"/>
+      <c r="E249" s="135"/>
     </row>
     <row r="250" spans="2:5">
-      <c r="B250" s="131"/>
-      <c r="C250" s="132"/>
-      <c r="D250" s="133"/>
-      <c r="E250" s="134"/>
+      <c r="B250" s="132"/>
+      <c r="C250" s="133"/>
+      <c r="D250" s="134"/>
+      <c r="E250" s="135"/>
     </row>
     <row r="251" spans="2:5">
-      <c r="B251" s="131"/>
-      <c r="C251" s="132"/>
-      <c r="D251" s="133"/>
-      <c r="E251" s="134"/>
+      <c r="B251" s="132"/>
+      <c r="C251" s="133"/>
+      <c r="D251" s="134"/>
+      <c r="E251" s="135"/>
     </row>
     <row r="252" spans="2:5">
-      <c r="B252" s="131"/>
-      <c r="C252" s="132"/>
-      <c r="D252" s="133"/>
-      <c r="E252" s="134"/>
+      <c r="B252" s="132"/>
+      <c r="C252" s="133"/>
+      <c r="D252" s="134"/>
+      <c r="E252" s="135"/>
     </row>
     <row r="253" spans="2:5">
-      <c r="B253" s="131"/>
-      <c r="C253" s="132"/>
-      <c r="D253" s="133"/>
-      <c r="E253" s="134"/>
+      <c r="B253" s="132"/>
+      <c r="C253" s="133"/>
+      <c r="D253" s="134"/>
+      <c r="E253" s="135"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/dr/protected/commands/template/m_template_lirun.xlsx
+++ b/dr/protected/commands/template/m_template_lirun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="6" r:id="rId1"/>
@@ -731,7 +731,7 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -742,7 +742,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>&gt;70% : 5
@@ -750,7 +750,7 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额</t>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>仅供参考，不计算分数</t>
@@ -1422,12 +1422,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1527,6 +1527,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1534,15 +1541,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,14 +1576,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1571,10 +1598,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1585,16 +1611,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,42 +1680,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1654,50 +1690,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1715,12 +1715,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1765,109 +1765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +1789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,7 +1807,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,7 +1849,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,31 +1939,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,19 +1999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,43 +2011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,7 +2023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2144,41 +2144,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2201,19 +2171,25 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2229,20 +2205,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2266,232 +2266,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2514,7 +2514,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2535,7 +2535,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2553,7 +2553,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2583,28 +2583,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2622,19 +2622,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2643,7 +2643,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2652,7 +2652,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2661,19 +2661,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2688,7 +2688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,7 +2697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2706,7 +2706,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,13 +2715,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2730,7 +2730,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2745,7 +2745,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2754,7 +2754,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2772,16 +2772,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2796,7 +2796,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,28 +2805,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2838,7 +2838,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2847,13 +2847,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,7 +2862,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,7 +2871,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2880,7 +2880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2895,7 +2895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2918,10 +2918,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2953,26 +2953,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3337,8 +3337,8 @@
   <sheetPr/>
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
